--- a/docs/shrcore/shr-core-EventContext-model.xlsx
+++ b/docs/shrcore/shr-core-EventContext-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$9</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="68">
   <si>
     <t>Path</t>
   </si>
@@ -227,16 +227,6 @@
   </si>
   <si>
     <t>Additional information to support this request.</t>
-  </si>
-  <si>
-    <t>shr-core-EventContext-model.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Business identifier or external id for this resource.</t>
   </si>
 </sst>
 </file>
@@ -385,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1306,105 +1296,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" hidden="true">
-      <c r="A10" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AI10">
+  <autoFilter ref="A1:AI9">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1414,7 +1307,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI9">
+  <conditionalFormatting sqref="A2:AI8">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
